--- a/Dados de Contas/Extrato Extrato ITAU 42963-0/Extrato Itau 2024.xlsx
+++ b/Dados de Contas/Extrato Extrato ITAU 42963-0/Extrato Itau 2024.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="23">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -46,34 +46,52 @@
     <t xml:space="preserve">ARCHIVE</t>
   </si>
   <si>
+    <t xml:space="preserve">PIX TRANSF PEDRO L18/04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferência Entre Contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrato Itau 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITONE</t>
   </si>
   <si>
     <t xml:space="preserve">Acerto</t>
   </si>
   <si>
-    <t xml:space="preserve">Transferência Pix Recebida </t>
-  </si>
-  <si>
     <t xml:space="preserve">Receita</t>
   </si>
   <si>
-    <t xml:space="preserve">Extrato Itau 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">PIX TRANSF PEDRO L17/04 </t>
   </si>
   <si>
-    <t xml:space="preserve">Transferência Entre Contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compra Pix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIX TRANSF PEDRO L18/04 </t>
+    <t xml:space="preserve">Salário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIX TRANSF PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAQUE 24HRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSCSS-PAG*DABOCAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartão Débito</t>
   </si>
 </sst>
 </file>
@@ -150,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,15 +182,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -213,18 +243,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.31"/>
   </cols>
@@ -252,26 +282,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2509.27</v>
+        <v>-1509.27</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -279,50 +309,556 @@
       <c r="A3" s="3" t="n">
         <v>45399</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>-1000</v>
+      <c r="B3" s="4" t="n">
+        <v>2509.27</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>45400</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>-1509.27</v>
+        <v>45399</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>-1000</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>1412</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>-1412</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>1412</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>-1412</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>-50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>1412</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>-1412</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>45317</v>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>45317</v>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>-16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>45314</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>45314</v>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>-44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>-30</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B23" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>-1320</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G4"/>
+  <autoFilter ref="A1:G26"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
